--- a/Data/Depression_Clinic_SCMCI_study_measures_2024.xlsx
+++ b/Data/Depression_Clinic_SCMCI_study_measures_2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\schneider-depression-lab\Data\external\questionnaires_data_dictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\schneider-depression-lab\Data\external\questionnaires_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="405">
   <si>
     <t>Full Name</t>
   </si>
@@ -2743,12 +2743,353 @@
 1. Anxiety Score - Sum of 1,2,3,4,5,6.
 2. Avoidence Score - Sum of items 7,8,9,10R,11R,12R.</t>
   </si>
+  <si>
+    <t>ASQ</t>
+  </si>
+  <si>
+    <t>CPSS-SR</t>
+  </si>
+  <si>
+    <t>SRS-S</t>
+  </si>
+  <si>
+    <t>ORS</t>
+  </si>
+  <si>
+    <t>CORS</t>
+  </si>
+  <si>
+    <t>CSQ-4</t>
+  </si>
+  <si>
+    <t>CGAS</t>
+  </si>
+  <si>
+    <t>MSPSS</t>
+  </si>
+  <si>
+    <t>CHS</t>
+  </si>
+  <si>
+    <t>Ask Suicide-Screening Questions</t>
+  </si>
+  <si>
+    <t>Child PTSD Symptom Scale Self-Report (DSM-5)</t>
+  </si>
+  <si>
+    <t>Child Trauma Screen</t>
+  </si>
+  <si>
+    <t>Social Responsiveness Scale – Short Form</t>
+  </si>
+  <si>
+    <t>Outcome Rating Scale</t>
+  </si>
+  <si>
+    <t>Child Outcome Rating Scale</t>
+  </si>
+  <si>
+    <t>Client Satisfaction Questionnaire-4</t>
+  </si>
+  <si>
+    <t>Children’s Global Assessment Scale</t>
+  </si>
+  <si>
+    <t>Multidimensional Scale of Perceived Social Support</t>
+  </si>
+  <si>
+    <t>Children’s Hope Scale</t>
+  </si>
+  <si>
+    <t>A brief 4-item suicide risk screener for pediatric and adolescent populations. Validated also for caregiver-report under age 8.</t>
+  </si>
+  <si>
+    <t>A self-report tool assessing PTSD symptoms in trauma-exposed children and adolescents.</t>
+  </si>
+  <si>
+    <t>Brief trauma screening tool for children aged 6–17.</t>
+  </si>
+  <si>
+    <t>Shortened versions of the SRS to assess autism-related social responsiveness traits.</t>
+  </si>
+  <si>
+    <t>A 4-item visual analog scale for tracking client well-being and therapeutic progress.</t>
+  </si>
+  <si>
+    <t>Adapted 4-item version of the ORS for children (ages 10–15).</t>
+  </si>
+  <si>
+    <t>A 4-item measure assessing client satisfaction with care.</t>
+  </si>
+  <si>
+    <t>A clinician-rated measure of children’s overall functioning (DSM-IV era).</t>
+  </si>
+  <si>
+    <t>A 12-item measure of perceived support from family, friends, and significant others.</t>
+  </si>
+  <si>
+    <t>A 6-item self-report measure of children’s agency and pathways thinking (hope).</t>
+  </si>
+  <si>
+    <t>Hennefield L, Chen C, Agali U, Luby J. (2024). doi:10.31234/osf.io/mbu5p</t>
+  </si>
+  <si>
+    <t>Foa EB, Asnaani A, Zang Y, Capaldi S, Yeh R. (2018). J Clin Child Adolesc Psychol, 47(1):38-46.</t>
+  </si>
+  <si>
+    <t>Lang JM, Connell CM. (2017). Psychol Trauma, 9(3):390–398.</t>
+  </si>
+  <si>
+    <t>Lyall K et al. (2022). JCPP Adv. 2(4):e12106; Patti MA et al. (2023). J Autism Dev Disord.</t>
+  </si>
+  <si>
+    <t>Miller S, Duncan B, Brown J. (2003). J Brief Ther.</t>
+  </si>
+  <si>
+    <t>Casey P et al. (2019).</t>
+  </si>
+  <si>
+    <t>Larsen DL, Attkisson CC, Hargreaves WA, Nguyen TD. (1979). Eval Program Plann, 2(3):197–207.</t>
+  </si>
+  <si>
+    <t>Shaffer D et al. (1983). Arch Gen Psychiatry, 40(11):1228–1231.</t>
+  </si>
+  <si>
+    <t>Zimet GD et al. (1988). J Pers Assess, 52(1):30–41.</t>
+  </si>
+  <si>
+    <t>Snyder CR et al. (1997). J Pediatr Psychol, 22(3):399–421.</t>
+  </si>
+  <si>
+    <t>asq_1_m
+asq_2_m
+asq_3_m
+asq_4_m
+asq_5_nssi_m
+asq_parent_m_5de6_timestamp
+asq_1_f
+asq_2_f
+asq_3_f
+asq_4_f
+asq_5_nssi_f
+asq_parent_f_f16b_timestamp</t>
+  </si>
+  <si>
+    <t>pds_events___1
+pds_events___2
+pds_events___3
+pds_events___4
+pds_events___5
+pds_events___6
+pds_events___7
+pds_events___8
+pds_events___9
+pds_events___10
+pds_events___11
+pds_events___12
+pds_events___13
+pds1_events
+pds2_events___1
+pds2_events___2
+pds2_events___3
+pds2_events___4
+pds2_events___5
+pds2_events___6
+pds2_events___7
+pds2_events___8
+pds2_events___9
+pds2_events___10
+pds2_events___11
+pds2_events___12
+pds2_events___13
+cpss_c_1
+cpss_c_01
+cpss_c_02
+cpss_c_03
+cpss_c_04
+cpss_c_05
+cpss_c_06
+cpss_c_07
+cpss_c_08
+cpss_c_09
+cpss_c_10
+cpss_c_11
+cpss_c_12
+cpss_c_13
+cpss_c_14
+cpss_c_15
+cpss_c_16
+cpss_c_17
+cpss_c_18
+cpss_c_19
+cpss_c_20
+cpss_c_fun1
+cpss_c_fun2
+cpss_c_fun3
+cpss_c_fun4
+cpss_c_fun5
+cpss_c_fun6
+cpss_c_fun7
+cpss_c_timestamp</t>
+  </si>
+  <si>
+    <t>cts_c_1
+cts_c_2
+cts_c_3
+cts_c_4
+cts_c_4_1
+cts_1_c
+cts_2_c
+cts_3_c
+cts_4_c
+cts_5
+cts_6
+cts_7
+cts_8
+cts_9
+cts_10
+cts_c_timestamp
+cts_p_1_f
+cts_p_2_f
+cts_p_3_f
+cts_p_4_f
+cts_p_4_1_f
+cts_1_f
+cts_2_f
+cts_3_f
+cts_4_f
+cts_c_4_1_f
+cts_5_f
+cts_7_f
+cts_8_f
+cts_9_f
+cts_10_f
+cts_f_timestamp
+cts_p_1_m
+cts_p_2_m
+cts_p_3_m
+cts_p_4_m
+cts_p_4_1_m
+cts_1_m
+cts_2_m
+cts_3_m
+cts_4_m
+cts_c_4_1_m
+cts_5_m
+cts_7_m
+cts_8_m
+cts_9_m
+cts_10_m
+cts_m_timestamp</t>
+  </si>
+  <si>
+    <t>srs_id_m
+srs_1
+srs_2
+srs_3
+srs_4
+srs_5
+srs_6
+srs_7
+srs_8
+srs_9
+srs_10
+srs_11
+srs_12
+srs_13
+srs_14
+srs_15
+srs_16
+srs_sum
+srs_s_parent_m_timestamp
+srs_id
+srs_1_f
+srs_2_f
+srs_3_f
+srs_4_f
+srs_5_f
+srs_6_f
+srs_7_f
+srs_8_f
+srs_9_f
+srs_10_f
+srs_11_f
+srs_12_f
+srs_13_f
+srs_14_f
+srs_15_f
+srs_16_f
+srs_sum_f
+srs_s_parent_f_timestamp</t>
+  </si>
+  <si>
+    <t>ors_personal_f
+ors_interpersonal_f
+ors_socially_f
+ors_general_f
+orscors_child_f_timestamp
+ors_personal_m
+ors_interpersonal_m
+ors_socially_m
+ors_general_m
+orscors_child_m_timestamp</t>
+  </si>
+  <si>
+    <t>cors_personal_c
+cors_interpersonal_c
+cors_socially_c
+cors_general_c
+cors_c_timestamp</t>
+  </si>
+  <si>
+    <t>cdq_identity
+satis_1_p_f
+satis_2_p_f
+satis_3_p_f
+satis_4_v2_7cccbc
+csq4_parent_f_timestamp
+csq_id_m
+satis_1_p_m
+satis_2_p_m
+satis_3_p_m
+satis_4_v2
+csq4_parent_m_timestamp</t>
+  </si>
+  <si>
+    <t>lowest_f
+cgi_clin_range
+cgas_clin_timestamp</t>
+  </si>
+  <si>
+    <t>mpss1
+mpss2
+mpss3
+mpss4
+mpss5
+mpss6
+mpss7
+mpss8
+mpss9
+mpss10
+mpss11
+mpss12
+mspss_timestamp</t>
+  </si>
+  <si>
+    <t>chs1
+chs2
+chs3
+chs4
+chs5
+chs6
+chs_timestamp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2784,6 +3125,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2805,7 +3152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2841,11 +3188,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2907,12 +3269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2936,6 +3292,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3241,11 +3609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.25" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3345,16 +3713,16 @@
       <c r="C5" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="29" t="s">
         <v>187</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="30" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3368,12 +3736,12 @@
       <c r="C6" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7" ht="252" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -3944,26 +4312,26 @@
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="26" customFormat="1" ht="140" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
+    <row r="32" spans="1:7" s="24" customFormat="1" ht="140" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="23" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4101,141 +4469,141 @@
         <v>325</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="30" customFormat="1" ht="154" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
+    <row r="39" spans="1:8" s="28" customFormat="1" ht="154" x14ac:dyDescent="0.3">
+      <c r="A39" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="27" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="30" customFormat="1" ht="168" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="s">
+    <row r="40" spans="1:8" s="28" customFormat="1" ht="168" x14ac:dyDescent="0.3">
+      <c r="A40" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F40" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G40" s="27" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="30" customFormat="1" ht="112" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
+    <row r="41" spans="1:8" s="28" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+      <c r="A41" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="27" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="30" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="27" t="s">
+    <row r="42" spans="1:8" s="28" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="F42" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G42" s="27" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="30" customFormat="1" ht="294" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
+    <row r="43" spans="1:8" s="28" customFormat="1" ht="294" x14ac:dyDescent="0.3">
+      <c r="A43" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="F43" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="G43" s="29" t="s">
+      <c r="G43" s="27" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="30" customFormat="1" ht="308" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="s">
+    <row r="44" spans="1:8" s="28" customFormat="1" ht="308" x14ac:dyDescent="0.3">
+      <c r="A44" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F44" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="27" t="s">
         <v>351</v>
       </c>
     </row>
@@ -4349,22 +4717,22 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="30" customFormat="1" ht="252" x14ac:dyDescent="0.3">
-      <c r="A50" s="27" t="s">
+    <row r="50" spans="1:7" s="28" customFormat="1" ht="252" x14ac:dyDescent="0.3">
+      <c r="A50" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27" t="s">
+      <c r="B50" s="25"/>
+      <c r="C50" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
     </row>
     <row r="51" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
@@ -4406,91 +4774,91 @@
         <v>348</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="30" customFormat="1" ht="224" x14ac:dyDescent="0.3">
-      <c r="A53" s="27" t="s">
+    <row r="53" spans="1:7" s="28" customFormat="1" ht="224" x14ac:dyDescent="0.3">
+      <c r="A53" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27" t="s">
+      <c r="B53" s="25"/>
+      <c r="C53" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="27" t="s">
+      <c r="D53" s="26"/>
+      <c r="E53" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="27" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="30" customFormat="1" ht="210" x14ac:dyDescent="0.3">
-      <c r="A54" s="27" t="s">
+    <row r="54" spans="1:7" s="28" customFormat="1" ht="210" x14ac:dyDescent="0.3">
+      <c r="A54" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="G54" s="27" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="30" customFormat="1" ht="280" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
+    <row r="55" spans="1:7" s="28" customFormat="1" ht="280" x14ac:dyDescent="0.3">
+      <c r="A55" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F55" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G55" s="27" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="30" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="27" t="s">
+    <row r="56" spans="1:7" s="28" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E56" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="F56" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="G56" s="29" t="s">
+      <c r="G56" s="27" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4511,87 +4879,87 @@
       </c>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="1:7" s="30" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="27" t="s">
+    <row r="58" spans="1:7" s="28" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27" t="s">
+      <c r="B58" s="25"/>
+      <c r="C58" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="27" t="s">
+      <c r="D58" s="26"/>
+      <c r="E58" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="F58" s="29" t="s">
+      <c r="F58" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="G58" s="29" t="s">
+      <c r="G58" s="27" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="30" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="27" t="s">
+    <row r="59" spans="1:7" s="28" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27" t="s">
+      <c r="B59" s="25"/>
+      <c r="C59" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="27" t="s">
+      <c r="D59" s="26"/>
+      <c r="E59" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="F59" s="29" t="s">
+      <c r="F59" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="G59" s="29" t="s">
+      <c r="G59" s="27" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="30" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="27" t="s">
+    <row r="60" spans="1:7" s="28" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E60" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="F60" s="29" t="s">
+      <c r="F60" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="G60" s="29" t="s">
+      <c r="G60" s="27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="30" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="27" t="s">
+    <row r="61" spans="1:7" s="28" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="F61" s="29" t="s">
+      <c r="F61" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="G61" s="29" t="s">
+      <c r="G61" s="27" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4684,24 +5052,24 @@
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="1:7" s="30" customFormat="1" ht="210" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
+    <row r="67" spans="1:7" s="28" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27" t="s">
+      <c r="B67" s="25"/>
+      <c r="C67" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="E67" s="27" t="s">
+      <c r="E67" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-    </row>
-    <row r="68" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+    </row>
+    <row r="68" spans="1:7" ht="156.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>41</v>
       </c>
@@ -4720,7 +5088,7 @@
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="183" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>42</v>
       </c>
@@ -4739,7 +5107,7 @@
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="119.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>43</v>
       </c>
@@ -4755,6 +5123,176 @@
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:7" ht="114.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E71" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="71.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F73" s="31" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="140.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F76" s="31" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F78" s="31" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="105.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="98.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F80" s="31" t="s">
+        <v>394</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
